--- a/MagusTools/Testcase_list.xlsx
+++ b/MagusTools/Testcase_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -27,25 +27,167 @@
     <t>Requirements</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>Application startup</t>
-  </si>
-  <si>
-    <t>00002</t>
-  </si>
-  <si>
-    <t>Application quit by window control</t>
-  </si>
-  <si>
-    <t>00003</t>
-  </si>
-  <si>
-    <t>Application quit via file menu item</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Basic window controls</t>
+  </si>
+  <si>
+    <t>REQ_0001, REQ_0002, REQ_0003,REQ_0004,REQ_0005</t>
+  </si>
+  <si>
+    <t>Automatization level</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_1002, REQ_1003, REQ_1004</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Minimize, maximize : Works as intended
+3) Try resizing : window is not sizeable
+4) Quit by pressing the close window button (X) : no error, no message pops up</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Open menu item from Files menu : An open dialog pops up
+3) Try choosing multiple files at once : Not possible
+4) Choose an invalid character file : File is not loaded, "Invalid character file." text appears in status bar.
+5) Quit by pressing Exit in File menu : no warnings or error messages appear.</t>
+  </si>
+  <si>
+    <t>Manual (multiple select)</t>
+  </si>
+  <si>
+    <t>Manual (resize)</t>
+  </si>
+  <si>
+    <t>Unsuccessful character file loading</t>
+  </si>
+  <si>
+    <t>Successful character file loading</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_1002, REQ_REQ_1005</t>
+  </si>
+  <si>
+    <t>Automatic</t>
+  </si>
+  <si>
+    <t>TC_0004</t>
+  </si>
+  <si>
+    <t>TC_0003</t>
+  </si>
+  <si>
+    <t>TC_0002</t>
+  </si>
+  <si>
+    <t>TC_0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REQ_1001, REQ_1008, </t>
+  </si>
+  <si>
+    <t>Fill out basic information tab and reset</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Set name to "Aladár Győző" : Value set.
+3) Choose Férfi for gender : Value set.
+4) Choose Chaos Life for alignment : Value set.
+5) Set age to 22 : Value set.
+6) Set race to half-elf : Value set.
+7) Set class to Fighter : Value set.
+8) Set Birthplace to Erion : Value set.
+9) Set religion to Arel : Value set.
+10) Set level to 4 : Value set.
+11) Choose New character from File menu : All fields revert back to the default values
+12) Choose Quit from file menu : Warning pops up
+13) Save character as "Aladár" : Character file is saved properly, application quits.</t>
+  </si>
+  <si>
+    <t>TC_0005</t>
+  </si>
+  <si>
+    <t>Age value check</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Open menu item from Files menu : An open dialog pops up
+3) Choose a valid character file : File is loaded, the file's path and name is shown in the status bar.
+4) Quit by pressing Exit in File menu : no warnings or error messages appear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_0006 </t>
+  </si>
+  <si>
+    <t>Level value check</t>
+  </si>
+  <si>
+    <t>TC_0007</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_2001, REQ_2002, REQ_2003</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_2004, REQ_2005,RED_2006</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_2007, REQ_2008, REQ_2009, REQ_2010, REQ_2011, REQ_2012, REQ_2013, REQ_2014</t>
+  </si>
+  <si>
+    <t>Uneditable fields on basic information tab.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Try changing value for Distributable CCP : Can't change value
+3) Try changing value for Realms : Can't change value
+4) Try changing value for Mana : Can't change value
+5) Try changing value for ManaperLevel : Can't change value
+6) Try changing value for Psy : Can't change value
+7) Try changing value for PsyperLevel : Can't change value
+8) Try changing value for AME : Can't change value
+9) Try changing value for MME : Can't change value
+10) Quit item from file menu : Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Press up arrow on Level field 19 times : Value gradually changes to 20
+3) Press up arrow on Level : Value remains 20
+4) Write 21 in the Level field : Value remains 20
+5) Write 1 in Level field : Value modifies to 1
+6) Press down arrow on Level field : Value remains 1
+7) Write Text in Age field : Value remains 1.
+8) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Press up arrow on Age field 29 times : Value gradually changes to 30
+3) Press up arrow on Age : Value remains 30
+4) Write 31 in the Age field : Value remains 30
+5) Write 1 in Age field : Value modifies to 1
+6) Press down arrow on Age field : Value remains 1
+7) Write -1 in the Age field : Value remains 1
+8) Write Text in Age field : Value remains 1.
+9) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>TC_0008</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_2015</t>
+  </si>
+  <si>
+    <t>Name length check</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Give a 40 character long value for Name : Value is set.
+3) Give a 41 character long value for Name : New value is not set.
+4) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>TC_0009</t>
   </si>
 </sst>
 </file>
@@ -103,14 +245,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -405,22 +562,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="56.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="6" customWidth="1"/>
+    <col min="3" max="4" width="56.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -432,264 +591,420 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="75">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="105">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="5"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="5"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="5"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="5"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="5"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="90">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="225">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="165">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="150">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="165">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="90">
+      <c r="A9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MagusTools/Testcase_list.xlsx
+++ b/MagusTools/Testcase_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="21015" windowHeight="8190"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20730" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="174">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -71,15 +71,6 @@
   </si>
   <si>
     <t>Automatic</t>
-  </si>
-  <si>
-    <t>TC_0004</t>
-  </si>
-  <si>
-    <t>TC_0003</t>
-  </si>
-  <si>
-    <t>TC_0002</t>
   </si>
   <si>
     <t>TC_0001</t>
@@ -106,9 +97,6 @@
 13) Save character as "Aladár" : Character file is saved properly, application quits.</t>
   </si>
   <si>
-    <t>TC_0005</t>
-  </si>
-  <si>
     <t>Age value check</t>
   </si>
   <si>
@@ -118,13 +106,7 @@
 4) Quit by pressing Exit in File menu : no warnings or error messages appear.</t>
   </si>
   <si>
-    <t xml:space="preserve">TC_0006 </t>
-  </si>
-  <si>
     <t>Level value check</t>
-  </si>
-  <si>
-    <t>TC_0007</t>
   </si>
   <si>
     <t>REQ_1001, REQ_2001, REQ_2002, REQ_2003</t>
@@ -172,9 +154,6 @@
 9) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
   </si>
   <si>
-    <t>TC_0008</t>
-  </si>
-  <si>
     <t>REQ_1001, REQ_2015</t>
   </si>
   <si>
@@ -187,7 +166,538 @@
 4) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
   </si>
   <si>
-    <t>TC_0009</t>
+    <t>Strength field check</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of strength field to 3 : value is set to 3.
+3) Press down arrow on strength field : value remains 3.
+4) Set value for strength field to 20 : value is set.
+5) Press up arrow on strength field : value remains 20.
+6) Give text value for strength field : Previous value is preserved.
+7) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3001, REQ_3002, REQ_3003</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3004, REQ_3005, REQ_3006</t>
+  </si>
+  <si>
+    <t>Speed field check</t>
+  </si>
+  <si>
+    <t>Agility field check</t>
+  </si>
+  <si>
+    <t>Endurance field check</t>
+  </si>
+  <si>
+    <t>Health field check</t>
+  </si>
+  <si>
+    <t>Charisma field check</t>
+  </si>
+  <si>
+    <t>Intelligence field check</t>
+  </si>
+  <si>
+    <t>Willpower field check</t>
+  </si>
+  <si>
+    <t>Astral field check</t>
+  </si>
+  <si>
+    <t>Perception field check</t>
+  </si>
+  <si>
+    <t>Strength's value above 10 check</t>
+  </si>
+  <si>
+    <t>Agility's value above 10 check</t>
+  </si>
+  <si>
+    <t>Speed's value above 10 check</t>
+  </si>
+  <si>
+    <t>Endurance's value above 10 check</t>
+  </si>
+  <si>
+    <t>Health's value above 10 check</t>
+  </si>
+  <si>
+    <t>Intelligence's value above 10 check</t>
+  </si>
+  <si>
+    <t>Willpower's value above 10 check</t>
+  </si>
+  <si>
+    <t>Astral's value above 10 check</t>
+  </si>
+  <si>
+    <t>Perception value change check</t>
+  </si>
+  <si>
+    <t>Charisma value change check</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3007, REQ_3008, REQ_3009</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3010, REQ_3011, REQ_3012</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3013, REQ_3014, REQ_3015</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3016, REQ_3017, REQ_3018</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3019, REQ_3020, REQ_3021</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3022, REQ_3023, REQ_3024</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3025, REQ_3026, REQ_3027</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3028, REQ_3029, REQ_3030</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3031, REQ_3032</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3033</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3034</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3035</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3036</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3037</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3040</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3041</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3042</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_3038, REQ_3039</t>
+  </si>
+  <si>
+    <t>TC_1002</t>
+  </si>
+  <si>
+    <t>TC_1003</t>
+  </si>
+  <si>
+    <t>TC_1004</t>
+  </si>
+  <si>
+    <t>TC_2001</t>
+  </si>
+  <si>
+    <t>TC_1001</t>
+  </si>
+  <si>
+    <t>TC_2002</t>
+  </si>
+  <si>
+    <t>TC_2003</t>
+  </si>
+  <si>
+    <t>TC_2004</t>
+  </si>
+  <si>
+    <t>TC_3001</t>
+  </si>
+  <si>
+    <t>TC_3002</t>
+  </si>
+  <si>
+    <t>TC_3003</t>
+  </si>
+  <si>
+    <t>TC_3004</t>
+  </si>
+  <si>
+    <t>TC_3005</t>
+  </si>
+  <si>
+    <t>TC_3006</t>
+  </si>
+  <si>
+    <t>TC_3007</t>
+  </si>
+  <si>
+    <t>TC_3008</t>
+  </si>
+  <si>
+    <t>TC_3009</t>
+  </si>
+  <si>
+    <t>TC_3010</t>
+  </si>
+  <si>
+    <t>TC_3011</t>
+  </si>
+  <si>
+    <t>TC_3012</t>
+  </si>
+  <si>
+    <t>TC_3013</t>
+  </si>
+  <si>
+    <t>TC_3014</t>
+  </si>
+  <si>
+    <t>TC_3015</t>
+  </si>
+  <si>
+    <t>TC_3016</t>
+  </si>
+  <si>
+    <t>TC_3017</t>
+  </si>
+  <si>
+    <t>TC_3018</t>
+  </si>
+  <si>
+    <t>TC_3019</t>
+  </si>
+  <si>
+    <t>TC_3020</t>
+  </si>
+  <si>
+    <t>TC_4001</t>
+  </si>
+  <si>
+    <t>Primary attributes less than 0 check</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_4001, REQ_4002, REQ_4003, REQ_4004, REQ_4005, REQ_4006, REQ_4007, REQ_4008, REQ_4009, REQ_4010</t>
+  </si>
+  <si>
+    <t>TC_4002</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_4011</t>
+  </si>
+  <si>
+    <t>Initiative adds to actual initiative</t>
+  </si>
+  <si>
+    <t>TC_4003</t>
+  </si>
+  <si>
+    <t>TC_4004</t>
+  </si>
+  <si>
+    <t>TC_4005</t>
+  </si>
+  <si>
+    <t>TC_4006</t>
+  </si>
+  <si>
+    <t>TC_4007</t>
+  </si>
+  <si>
+    <t>TC_4008</t>
+  </si>
+  <si>
+    <t>TC_4009</t>
+  </si>
+  <si>
+    <t>TC_4010</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_4012</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_4013</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_4014</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_4015</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_4016</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_4017</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_4018</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_4019</t>
+  </si>
+  <si>
+    <t>Attack adds to actual attack</t>
+  </si>
+  <si>
+    <t>Defense adds to actual defense</t>
+  </si>
+  <si>
+    <t>Aim adds to actual aim</t>
+  </si>
+  <si>
+    <t>HP adds to actual HP</t>
+  </si>
+  <si>
+    <t>PR adds to actual PR</t>
+  </si>
+  <si>
+    <t>PR/Level adds PR times level to actual PR</t>
+  </si>
+  <si>
+    <t>KP adds to actual KP</t>
+  </si>
+  <si>
+    <t>KP adds KP times level to actual KP</t>
+  </si>
+  <si>
+    <t>TC_5001</t>
+  </si>
+  <si>
+    <t>Skills window test</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_5001, REQ_5002, REQ_5003, REQ_5004</t>
+  </si>
+  <si>
+    <t>manual (expand/collapse)</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of speed field to 3 : value is set to 3.
+3) Press down arrow on speed field : value remains 3.
+4) Set value for speed field to 20 : value is set.
+5) Press up arrow on speed field : value remains 20.
+6) Give text value for speed field : Previous value is preserved.
+7) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of agility field to 3 : value is set to 3.
+3) Press down arrow on agility field : value remains 3.
+4) Set value for agility field to 20 : value is set.
+5) Press up arrow on agility field : value remains 20.
+6) Give text value for agility field : Previous value is preserved.
+7) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of endurance  field to 3 : value is set to 3.
+3) Press down arrow on endurance  field : value remains 3.
+4) Set value for endurance field to 20 : value is set.
+5) Press up arrow on endurance field : value remains 20.
+6) Give text value for endurance  field : Previous value is preserved.
+7) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of health field to 3 : value is set to 3.
+3) Press down arrow on health field : value remains 3.
+4) Set value for health field to 20 : value is set.
+5) Press up arrow on health field : value remains 20.
+6) Give text value for health field : Previous value is preserved.
+7) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of charisma field to 3 : value is set to 3.
+3) Press down arrow on charisma field : value remains 3.
+4) Set value for charisma field to 20 : value is set.
+5) Press up arrow on charisma field : value remains 20.
+6) Give text value for charisma field : Previous value is preserved.
+7) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of intelligence field to 3 : value is set to 3.
+3) Press down arrow on intelligence field : value remains 3.
+4) Set value for intelligence field to 20 : value is set.
+5) Press up arrow on intelligence field : value remains 20.
+6) Give text value for intelligence field : Previous value is preserved.
+7) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of willpower field to 3 : value is set to 3.
+3) Press down arrow on willpower field : value remains 3.
+4) Set value for willpower field to 20 : value is set.
+5) Press up arrow on willpower field : value remains 20.
+6) Give text value for willpower field : Previous value is preserved.
+7) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of astral field to 3 : value is set to 3.
+3) Press down arrow on astral field : value remains 3.
+4) Set value for astral field to 20 : value is set.
+5) Press up arrow on astral field : value remains 20.
+6) Give text value for astral field : Previous value is preserved.
+7) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of perception field to 3 : value is set to 3.
+3) Press down arrow on perception field : value remains 3.
+4) Set value for perception field to 20 : value is set.
+5) Press up arrow on perception field : value remains 20.
+6) Give text value for perception field : Previous value is preserved.
+7) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of strength field to 20 : Attack's value has been changed to 14.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of agility field to 20 : Initiative's value is 12, Attack's value is 14, Defense's value is 12.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of speed field to 20 : Initiative's value is 12, Attack's value is 14, Defense's value is 12.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of endurance field to 20 : PR's value is 13.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of health field to 20 : HP's value has been changed to 11.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of charisma field to 20 : No other field's value is changed.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of intelligence field to 20 : Psy actual value is 10.
+3) Change class to Bard : class is changed. Actual mana points' value is 10.
+4) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of willpower field to 20 : MMR value has been changed to 10.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of astral field to 20 : AMR's value has been changed to 10.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of perception field to 20 : No other field's value is changed.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of initiative field to 10 : Actual Initiative's value has been changed to 10.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of attack field to 10 : Actual attack's value has been changed to 10.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of defense field to 10 : Actual defense's value has been changed to 10.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of aim field to 10 : Actual Aim's value has been changed to 10.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of HP field to 10 : Actual HP's value has been changed to 10.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of PR field to 10 : Actual PR's value has been changed to 10.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of PR/Level field to 10 : Actual PR's value has been changed to 10.
+3) Change value of Level to 3 : Actual PR's value is 30.
+4) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of KP field to 10 : Actual KP's value has been changed to 10.
+3) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change value of KP/Level field to 10 : Actual KP's value has been changed to 10.
+3) Change value of Level to 3 : Actual KP's value is 30.
+4) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Press expand all button on Available skills : All items in tree view are expanded.
+3) Press collapse all button on Available skills : All items in tree view are collapsed.
+4) Press expand first level button : First level items are expanded the rest are collapsed.
+3) Change value of Level to 3 : Actual KP's value is 30.
+4) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>TC_5002</t>
+  </si>
+  <si>
+    <t>REQ_5005</t>
+  </si>
+  <si>
+    <t>Adding skill test</t>
+  </si>
+  <si>
+    <t>1) Startup : application start without and error
+2) Drag and drop Brawling skill from Available skills to Selected skills : skill add window appears, pressing OK adds skill to Selected Skills.
+3)</t>
+  </si>
+  <si>
+    <t>REQ_1001, REQ_1012</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Change language menu item chosen : language changes from hungarian to english
+3) Change language menu item chosen : language changes from english to hungarian
+4) Quit : Application quits.</t>
+  </si>
+  <si>
+    <t>Manual</t>
   </si>
 </sst>
 </file>
@@ -562,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -598,7 +1108,7 @@
     </row>
     <row r="2" spans="1:6" ht="75">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -616,7 +1126,7 @@
     </row>
     <row r="3" spans="1:6" ht="105">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
@@ -634,7 +1144,7 @@
     </row>
     <row r="4" spans="1:6" ht="90">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>14</v>
@@ -643,7 +1153,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>15</v>
@@ -652,359 +1162,695 @@
     </row>
     <row r="5" spans="1:6" ht="225">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="165">
+    <row r="6" spans="1:6" ht="90">
       <c r="A6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="165">
+      <c r="A7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="150">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" ht="165">
+    <row r="8" spans="1:6" ht="150">
       <c r="A8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="90">
+    <row r="9" spans="1:6" ht="165">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="90">
       <c r="A10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="135">
+      <c r="A11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="135">
+      <c r="A12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="135">
+      <c r="A13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="135">
+      <c r="A14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="135">
+      <c r="A15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+    <row r="16" spans="1:6" ht="135">
+      <c r="A16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+    <row r="17" spans="1:6" ht="135">
+      <c r="A17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+    <row r="18" spans="1:6" ht="135">
+      <c r="A18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+    <row r="19" spans="1:6" ht="135">
+      <c r="A19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+    <row r="20" spans="1:6" ht="135">
+      <c r="A20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+    <row r="21" spans="1:6" ht="75">
+      <c r="A21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+    <row r="22" spans="1:6" ht="75">
+      <c r="A22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+    <row r="23" spans="1:6" ht="75">
+      <c r="A23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+    <row r="24" spans="1:6" ht="60">
+      <c r="A24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+    <row r="25" spans="1:6" ht="75">
+      <c r="A25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+    <row r="26" spans="1:6" ht="75">
+      <c r="A26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+    <row r="27" spans="1:6" ht="105">
+      <c r="A27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+    <row r="28" spans="1:6" ht="75">
+      <c r="A28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+    <row r="29" spans="1:6" ht="75">
+      <c r="A29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+    <row r="30" spans="1:6" ht="75">
+      <c r="A30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+    <row r="31" spans="1:6" ht="90">
+      <c r="A31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+    <row r="32" spans="1:6" ht="75">
+      <c r="A32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+    <row r="33" spans="1:6" ht="75">
+      <c r="A33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
+    <row r="34" spans="1:6" ht="75">
+      <c r="A34" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
+    <row r="35" spans="1:6" ht="75">
+      <c r="A35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+    <row r="36" spans="1:6" ht="75">
+      <c r="A36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+    <row r="37" spans="1:6" ht="75">
+      <c r="A37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+    <row r="38" spans="1:6" ht="90">
+      <c r="A38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
+    <row r="39" spans="1:6" ht="75">
+      <c r="A39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+    <row r="40" spans="1:6" ht="90">
+      <c r="A40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+    <row r="41" spans="1:6" ht="150">
+      <c r="A41" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+    <row r="42" spans="1:6" ht="75">
+      <c r="A42" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MagusTools/Testcase_list.xlsx
+++ b/MagusTools/Testcase_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="175">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -133,27 +133,6 @@
 10) Quit item from file menu : Application quits.</t>
   </si>
   <si>
-    <t>1) Startup : application starts without an error
-2) Press up arrow on Level field 19 times : Value gradually changes to 20
-3) Press up arrow on Level : Value remains 20
-4) Write 21 in the Level field : Value remains 20
-5) Write 1 in Level field : Value modifies to 1
-6) Press down arrow on Level field : Value remains 1
-7) Write Text in Age field : Value remains 1.
-8) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
-  </si>
-  <si>
-    <t>1) Startup : application starts without an error
-2) Press up arrow on Age field 29 times : Value gradually changes to 30
-3) Press up arrow on Age : Value remains 30
-4) Write 31 in the Age field : Value remains 30
-5) Write 1 in Age field : Value modifies to 1
-6) Press down arrow on Age field : Value remains 1
-7) Write -1 in the Age field : Value remains 1
-8) Write Text in Age field : Value remains 1.
-9) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
-  </si>
-  <si>
     <t>REQ_1001, REQ_2015</t>
   </si>
   <si>
@@ -698,6 +677,31 @@
   </si>
   <si>
     <t>Manual</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Press up arrow on Age field : Value gradually changes to 17
+3) Set value for Age to 30 : Value is set to 30
+4) Press up arrow on age : Value remains 30
+5) Write 16 in Age field : Value modifies to 16
+6) Press down arrow on Age field : Value remains 16
+7) Write -1 in the Age field : Value remains 16
+8) Write Text in Age field : Value remains 1.
+9) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>1) Startup : application starts without an error
+2) Push up arrow on Level : Value changes to 2
+3) Change value for level to 20 : Value changes to 20
+4) Press up arrow on Level : Value remains 20
+5) Write 21 in the Level field : Value remains 20
+6) Write 1 in Level field : Value modifies to 1
+7) Press down arrow on Level field : Value remains 1
+8) Write Text in Age field : Value remains 1.
+9) Quit menu item in file menu : Application offers saving current data, deny. Application quits.</t>
+  </si>
+  <si>
+    <t>manual</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1126,7 +1130,7 @@
     </row>
     <row r="3" spans="1:6" ht="105">
       <c r="A3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
@@ -1144,7 +1148,7 @@
     </row>
     <row r="4" spans="1:6" ht="90">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>14</v>
@@ -1162,7 +1166,7 @@
     </row>
     <row r="5" spans="1:6" ht="225">
       <c r="A5" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>17</v>
@@ -1180,25 +1184,25 @@
     </row>
     <row r="6" spans="1:6" ht="90">
       <c r="A6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="165">
+    <row r="7" spans="1:6" ht="150">
       <c r="A7" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
@@ -1207,7 +1211,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>15</v>
@@ -1216,7 +1220,7 @@
     </row>
     <row r="8" spans="1:6" ht="150">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>24</v>
@@ -1225,7 +1229,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>15</v>
@@ -1234,7 +1238,7 @@
     </row>
     <row r="9" spans="1:6" ht="165">
       <c r="A9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>25</v>
@@ -1246,22 +1250,22 @@
         <v>27</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="90">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>15</v>
@@ -1270,574 +1274,574 @@
     </row>
     <row r="11" spans="1:6" ht="135">
       <c r="A11" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" ht="135">
       <c r="A12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="135">
       <c r="A13" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" ht="135">
       <c r="A14" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="135">
       <c r="A15" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="135">
       <c r="A16" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="135">
       <c r="A17" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="135">
       <c r="A18" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="135">
       <c r="A19" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="135">
       <c r="A20" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="75">
       <c r="A21" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" ht="75">
       <c r="A22" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="75">
       <c r="A23" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="60">
       <c r="A24" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="75">
       <c r="A25" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="75">
       <c r="A26" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="105">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="75">
       <c r="A28" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="75">
       <c r="A29" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="75">
       <c r="A30" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="90">
       <c r="A31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="C31" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" ht="75">
       <c r="A32" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="75">
       <c r="A33" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="75">
       <c r="A34" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6" ht="75">
       <c r="A35" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="75">
       <c r="A36" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="75">
       <c r="A37" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="90">
       <c r="A38" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F38" s="5"/>
     </row>
     <row r="39" spans="1:6" ht="75">
       <c r="A39" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F39" s="5"/>
     </row>
     <row r="40" spans="1:6" ht="90">
       <c r="A40" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:6" ht="150">
       <c r="A41" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="C41" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="F41" s="5"/>
     </row>
     <row r="42" spans="1:6" ht="75">
       <c r="A42" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>15</v>
